--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredw\AppData\Local\Temp\scp58447\home\fwarren\.venv\smartsheet_boats_on_order\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opt\smartsheet_boats_on_order\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -242,6 +242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -597,7 +600,7 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O2000"/>
+  <dimension ref="A1:M2000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +676,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opt\smartsheet_boats_on_order\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Fred\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -238,13 +238,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -606,10 +606,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="17" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
@@ -643,17 +643,17 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -670,13 +670,13 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -609,8 +609,8 @@
     <col min="1" max="1" width="13.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="9" customWidth="1"/>

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -610,7 +610,7 @@
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="73.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="9" customWidth="1"/>

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -610,7 +610,7 @@
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="73.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="9" customWidth="1"/>

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -610,7 +610,7 @@
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="73.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="9" customWidth="1"/>

--- a/templates/BoatsOnOrderTemplateClemens.xlsx
+++ b/templates/BoatsOnOrderTemplateClemens.xlsx
@@ -606,14 +606,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="73.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
     <col min="9" max="9" width="33.42578125" style="9" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="13" width="9.140625" hidden="1" customWidth="1"/>
